--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7248346320827755</v>
+        <v>1.460910193902084</v>
       </c>
       <c r="C11" t="n">
-        <v>1.537996214370549</v>
+        <v>2.887213562871274</v>
       </c>
       <c r="D11" t="n">
-        <v>4.629240069881383</v>
+        <v>8.82629676718704</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1222760112561082</v>
+        <v>0.9756632565817065</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3735406081789275</v>
+        <v>2.831711811887109</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5019676328261694</v>
+        <v>3.552140899043278</v>
       </c>
     </row>
     <row r="13">

--- a/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
+++ b/Modelos em Python/0 dia a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros treino.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.460910193902084</v>
+        <v>1.474656874868999</v>
       </c>
       <c r="C11" t="n">
-        <v>2.887213562871274</v>
+        <v>2.904875340374228</v>
       </c>
       <c r="D11" t="n">
-        <v>8.82629676718704</v>
+        <v>8.883839588334411</v>
       </c>
     </row>
     <row r="12">
